--- a/SPOTLIGHTS_CAMPAIGNS_TEMPLATE.xlsx
+++ b/SPOTLIGHTS_CAMPAIGNS_TEMPLATE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B39381\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://interbankpe.sharepoint.com/sites/DigitalAnalytics/Documentos compartidos/REPOSITORIOS/Interbank/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54DE5AF-E40E-40D1-9D44-F3D98257134A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -656,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -668,11 +668,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1019,10 +1014,10 @@
       <c r="C2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="13">
         <v>45407</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="13">
         <v>45412</v>
       </c>
     </row>
@@ -1059,7 +1054,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1115,90 +1110,90 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:3" s="8" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1213,14 +1208,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1282,13 +1277,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1341,6 +1336,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6532f6aa-6233-4d5b-85aa-e17b14a45147">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cc8981a1-9baa-4ef1-a3d9-dda0a00a69e1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B26393719A3B9043B0186051892B6007" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="4f9194708afc29ad03ab883ba05c5898">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6532f6aa-6233-4d5b-85aa-e17b14a45147" xmlns:ns3="cc8981a1-9baa-4ef1-a3d9-dda0a00a69e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b6c24a731858dce3834ce92bfe47558" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1592,41 +1609,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6532f6aa-6233-4d5b-85aa-e17b14a45147">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cc8981a1-9baa-4ef1-a3d9-dda0a00a69e1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B09CEA1-B7C9-48A6-B9AC-9368A55DEB36}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84588A09-BCCE-4C74-B032-FE463071B5AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1ED3E90D-0E80-4CF7-85B9-D189DC4AB059}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1640,6 +1623,36 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6532f6aa-6233-4d5b-85aa-e17b14a45147"/>
+    <ds:schemaRef ds:uri="cc8981a1-9baa-4ef1-a3d9-dda0a00a69e1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84588A09-BCCE-4C74-B032-FE463071B5AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B09CEA1-B7C9-48A6-B9AC-9368A55DEB36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="6532f6aa-6233-4d5b-85aa-e17b14a45147"/>
+    <ds:schemaRef ds:uri="cc8981a1-9baa-4ef1-a3d9-dda0a00a69e1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPOTLIGHTS_CAMPAIGNS_TEMPLATE.xlsx
+++ b/SPOTLIGHTS_CAMPAIGNS_TEMPLATE.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://interbankpe.sharepoint.com/sites/DigitalAnalytics/Documentos compartidos/REPOSITORIOS/Interbank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54DE5AF-E40E-40D1-9D44-F3D98257134A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E54DE5AF-E40E-40D1-9D44-F3D98257134A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FB41B06-37C6-4C9A-A3B9-5B22514F9C09}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
     <sheet name="Contenido" sheetId="2" r:id="rId2"/>
     <sheet name="Variables" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,90 +40,445 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
+    <t>Ambiente</t>
+  </si>
+  <si>
+    <t>Spotlight</t>
+  </si>
+  <si>
+    <t>Nombre Campaña</t>
+  </si>
+  <si>
+    <t>Fecha Despliegue</t>
+  </si>
+  <si>
+    <t>Fecha Apagado</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>SPOTLIGHT_1</t>
+  </si>
+  <si>
+    <t>Descuento Hiraoka</t>
+  </si>
+  <si>
     <t>nombre_campo</t>
   </si>
   <si>
+    <t>descriptor_campo</t>
+  </si>
+  <si>
     <t>valor</t>
   </si>
   <si>
     <t>imagen_spotlight</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>URL de la imagen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que se mostrará en el spotlight</t>
+    </r>
+  </si>
+  <si>
+    <t>https://content-us-1.content-cms.com/.../Spotlight%20plin%203.png</t>
+  </si>
+  <si>
     <t>titulo_spotlight</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Contenido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que se mostrará como titulo del spotlight</t>
+    </r>
+  </si>
+  <si>
+    <t>Hasta 60% dscto. en Electro y Tecnología</t>
+  </si>
+  <si>
     <t>bajada_spotlight</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Contenido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que se mostrará como subtitulo del spotlight</t>
+    </r>
+  </si>
+  <si>
+    <t>Válido en tiendas físicas y web de Hiraoka</t>
+  </si>
+  <si>
     <t>icono_listado</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>URL de la imagen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que se mostrará como icono de la campaña listada</t>
+    </r>
+  </si>
+  <si>
+    <t>https://content-us-1.content-cms.com/.../Icon%Spotlight%20plin%203.png</t>
+  </si>
+  <si>
     <t>titulo_listado</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Contenido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que se mostrará como titulo de la campaña listada</t>
+    </r>
+  </si>
+  <si>
+    <t>Descubre la promo del mes</t>
+  </si>
+  <si>
     <t>imagen_detalle</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>URL de la imagen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que se mostrará en el detalle de la campaña</t>
+    </r>
+  </si>
+  <si>
     <t>titulo_detalle</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Contenido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que se mostrará como titulo de la campaña en su detalle</t>
+    </r>
+  </si>
+  <si>
     <t>bajada_detalle</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Contenido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que se mostrará como subtitulo de la campaña en su detalle</t>
+    </r>
+  </si>
+  <si>
     <t>descripcion_detalle</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Contenido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que se mostrará como descripción de la campaña en su detalle</t>
+    </r>
+  </si>
+  <si>
+    <t>Descuento válido hasta el 30 de abril pagando con Tarjetas y Plin Interbank.</t>
+  </si>
+  <si>
     <t>subtitulo_detalle</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Contenido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que se mostrará como descriptor de los bullets de la campaña en su detalle</t>
+    </r>
+  </si>
+  <si>
+    <t>Información importante</t>
+  </si>
+  <si>
     <t>bullets</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Contenido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que se mostrará como bullets de la campaña en su detalle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCF6F59"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Cada nuevo bullet debe arrancar con un '|')</t>
+    </r>
+  </si>
+  <si>
+    <t>Promoción válida en productos seleccionados de Electro y Tecnología.|Disponible pagando con Tarjetas de Crédito y/o Débito Interbank, Apple Pay, Google Pay, Garmin Pay y el QR Plin desde Interbank APP en el POS del establecimiento.|Válido para compras en tiendas físicas y en la web Hiraoka.com.pe.</t>
+  </si>
+  <si>
     <t>txt_titulo</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Contenido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que se mostrará como titulo del boton del detalle de la campaña</t>
+    </r>
+  </si>
+  <si>
+    <t>Conoce más</t>
+  </si>
+  <si>
     <t>enlace</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>URL o deeplink</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que se utilizará en la redirección del boton del detalle de la campaña </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCF6F59"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Considere agregar UTMs para urls externas)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://hiraoka.com.pe/promociones-interbank</t>
+  </si>
+  <si>
     <t>enlace_externo</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que indica la utilización de una redirección externa en el boton del detalle de la campaña</t>
+    </r>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
     <t>tag_action</t>
   </si>
   <si>
-    <t>Descubre la promo del mes</t>
-  </si>
-  <si>
-    <t>img-ico_facturacion_sec-novedades_cashback-supermercado2.png</t>
-  </si>
-  <si>
-    <t>Conoce más</t>
-  </si>
-  <si>
-    <t>img-banner-para-ti_facturacion_hiraoka.png</t>
-  </si>
-  <si>
-    <t>Hasta 60% dscto. en Electro y Tecnología</t>
-  </si>
-  <si>
-    <t>Válido en tiendas físicas y web de Hiraoka</t>
-  </si>
-  <si>
-    <t>Descuento válido hasta el 30 de abril pagando con Tarjetas y Plin Interbank.</t>
-  </si>
-  <si>
-    <t>Información importante</t>
-  </si>
-  <si>
-    <t>Promoción válida en productos seleccionados de Electro y Tecnología.|Disponible pagando con Tarjetas de Crédito y/o Débito Interbank, Apple Pay, Google Pay, Garmin Pay y el QR Plin desde Interbank APP en el POS del establecimiento.|Válido para compras en tiendas físicas y en la web Hiraoka.com.pe.</t>
-  </si>
-  <si>
-    <t>https://hiraoka.com.pe/promociones-interbank</t>
-  </si>
-  <si>
-    <t>descriptor_campo</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -127,226 +487,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>URL de la imagen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que se mostrará en el spotlight</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Contenido</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que se mostrará como titulo del spotlight</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Contenido</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que se mostrará como titulo de la campaña listada</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>URL de la imagen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que se mostrará como icono de la campaña listada</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>URL de la imagen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que se mostrará en el detalle de la campaña</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Contenido</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que se mostrará como subtitulo del spotlight</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Contenido</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que se mostrará como titulo de la campaña en su detalle</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Contenido</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que se mostrará como subtitulo de la campaña en su detalle</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Contenido</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que se mostrará como descripción de la campaña en su detalle</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Contenido</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que se mostrará como titulo del boton del detalle de la campaña</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Identificador </t>
     </r>
     <r>
@@ -361,141 +501,24 @@
     </r>
   </si>
   <si>
-    <t>Si</t>
+    <t>Promo Hiraoka 202404</t>
   </si>
   <si>
     <t>Flag</t>
   </si>
   <si>
+    <t>Ambientes</t>
+  </si>
+  <si>
+    <t>Spotlights</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Contenido</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que se mostrará como descriptor de los bullets de la campaña en su detalle</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Contenido</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que se mostrará como bullets de la campaña en su detalle </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCF6F59"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Cada nuevo bullet debe arrancar con un '|')</t>
-    </r>
-  </si>
-  <si>
-    <t>Promo Hiraoka 202404</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Flag</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que indica la utilización de una redirección externa en el boton del detalle de la campaña</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>URL o deeplink</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que se utilizará en la redirección del boton del detalle de la campaña </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCF6F59"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Considere agregar UTMs para urls externas)</t>
-    </r>
-  </si>
-  <si>
-    <t>Ambientes</t>
-  </si>
-  <si>
     <t>PRD</t>
   </si>
   <si>
-    <t>DEV</t>
-  </si>
-  <si>
-    <t>Spotlights</t>
-  </si>
-  <si>
-    <t>SPOTLIGHT_1</t>
-  </si>
-  <si>
     <t>SPOTLIGHT_2</t>
   </si>
   <si>
@@ -509,31 +532,13 @@
   </si>
   <si>
     <t>SPOTLIGHT_6</t>
-  </si>
-  <si>
-    <t>Ambiente</t>
-  </si>
-  <si>
-    <t>Spotlight</t>
-  </si>
-  <si>
-    <t>Nombre Campaña</t>
-  </si>
-  <si>
-    <t>Descuento Hiraoka</t>
-  </si>
-  <si>
-    <t>Fecha Despliegue</t>
-  </si>
-  <si>
-    <t>Fecha Apagado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,7 +661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -685,9 +690,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -979,40 +985,40 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="11.90625" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D2" s="13">
         <v>45407</v>
@@ -1053,201 +1059,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.54296875" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C7" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6">
+      <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6">
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15.6">
+      <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="8" customFormat="1" ht="72.599999999999994">
+      <c r="A12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="4" customFormat="1" ht="15.6">
+      <c r="A13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="8" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="27">
       <c r="A14" s="11" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="4" customFormat="1">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C14" r:id="rId1" xr:uid="{7FE5083D-72A9-4997-81EA-8967BD096789}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{9B4C6323-BCC4-4069-B311-DC1971456C3C}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{231C0211-C965-4A3C-A63E-1D1AC06D0039}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{6670E91C-D77B-49C8-8773-C7485B01CCD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1271,62 +1280,62 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="E4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="E5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="E6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="E7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1336,28 +1345,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6532f6aa-6233-4d5b-85aa-e17b14a45147">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cc8981a1-9baa-4ef1-a3d9-dda0a00a69e1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B26393719A3B9043B0186051892B6007" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="4f9194708afc29ad03ab883ba05c5898">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6532f6aa-6233-4d5b-85aa-e17b14a45147" xmlns:ns3="cc8981a1-9baa-4ef1-a3d9-dda0a00a69e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b6c24a731858dce3834ce92bfe47558" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1609,50 +1596,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6532f6aa-6233-4d5b-85aa-e17b14a45147">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cc8981a1-9baa-4ef1-a3d9-dda0a00a69e1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1ED3E90D-0E80-4CF7-85B9-D189DC4AB059}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d65a6b72-f7d4-48c7-92a0-df28afa28631"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d4126a3d-80a3-4057-af1f-6d1f633afdc1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="6532f6aa-6233-4d5b-85aa-e17b14a45147"/>
-    <ds:schemaRef ds:uri="cc8981a1-9baa-4ef1-a3d9-dda0a00a69e1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B09CEA1-B7C9-48A6-B9AC-9368A55DEB36}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84588A09-BCCE-4C74-B032-FE463071B5AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1ED3E90D-0E80-4CF7-85B9-D189DC4AB059}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B09CEA1-B7C9-48A6-B9AC-9368A55DEB36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="6532f6aa-6233-4d5b-85aa-e17b14a45147"/>
-    <ds:schemaRef ds:uri="cc8981a1-9baa-4ef1-a3d9-dda0a00a69e1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84588A09-BCCE-4C74-B032-FE463071B5AA}"/>
 </file>